--- a/DuleCard/Art/UI/UI出图规则（持续修订中）.xlsx
+++ b/DuleCard/Art/UI/UI出图规则（持续修订中）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\工作-点线面\【管理】\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\工作-点线面\方寸对决\方寸对决资源\Art\UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,99 +38,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tab_xx（界面英文名）_01(选中态)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tab_xx（界面英文名）_01(未选中态)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>btn_xx（界面英文名）_coler/size（描述颜色大小）_02(点击态)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：title_cn_shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：tab_units_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：btn_battle_red_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      btn_normal_01（通用按钮）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      tab_units_02_01（二级页签）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_cn/en_aaa(标题名)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_xx（界面英文名）_aaa（图片名）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中英文图片大小一致，方便程序替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮各态图片大小一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：img_battle_bar_01(进度条)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度条底部及进度条图片大小位置一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以九宫格拉伸的图片尽量控制大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方形不带透明区域的图片尽量出jpg格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带半透明区域的图片把透明区域切干净</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片需要居中对齐或首尾对齐的，出图时检查图片的位置是否是居中/对齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tab_xx（界面英文名）_02(选中态)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>btn_xx（界面英文名）_coler/size（描述颜色大小）_01(常态)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>btn_xx（界面英文名）_coler/size（描述颜色大小）_02(点击态)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>btn_xx（界面英文名）_coler/size（描述颜色大小）_02(点击态)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如：title_cn_shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如：tab_units_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如：btn_battle_red_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      btn_normal_01（通用按钮）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      tab_units_02_01（二级页签）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title_cn/en_aaa(标题名)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_xx（界面英文名）_aaa（图片名）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>icon_xx（界面英文名）_aaa（图标名）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中英文图片大小一致，方便程序替换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮各态图片大小一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如：img_battle_bar_01(进度条)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度条底部及进度条图片大小位置一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以九宫格拉伸的图片尽量控制大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方形不带透明区域的图片尽量出jpg格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带半透明区域的图片把透明区域切干净</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片需要居中对齐或首尾对齐的，出图时检查图片的位置是否是居中/对齐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,15 +477,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="7" width="54" customWidth="1"/>
+    <col min="2" max="2" width="67.875" customWidth="1"/>
+    <col min="3" max="7" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -497,13 +494,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -511,18 +508,18 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -530,74 +527,69 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
